--- a/backend/api/utils/question_images_temp/FYP Web Resources.xlsx
+++ b/backend/api/utils/question_images_temp/FYP Web Resources.xlsx
@@ -11,12 +11,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="177">
   <si>
     <t>S1</t>
   </si>
   <si>
-    <t>SELECT</t>
+    <t>SELECTFROM</t>
   </si>
   <si>
     <t>https://www.studytonight.com/dbms/select-query.php</t>
@@ -31,13 +31,25 @@
     <t>S3</t>
   </si>
   <si>
-    <t>https://www.geeksforgeeks.org/sql-select-query/</t>
+    <t>https://www.w3schools.com/sql/sql_select.asp</t>
   </si>
   <si>
     <t>S4</t>
   </si>
   <si>
-    <t>https://www.w3schools.com/sql/sql_select.asp</t>
+    <t>https://www.sitepoint.com/simply-sql-the-from-clause/</t>
+  </si>
+  <si>
+    <t>S5</t>
+  </si>
+  <si>
+    <t>https://www.techonthenet.com/sql/from.php</t>
+  </si>
+  <si>
+    <t>S6</t>
+  </si>
+  <si>
+    <t>https://oracle-base.com/articles/misc/sql-for-beginners-the-from-clause</t>
   </si>
   <si>
     <t>W1</t>
@@ -73,10 +85,22 @@
     <t>https://www.w3resource.com/sql/where-clause.php?passed=passed</t>
   </si>
   <si>
+    <t>W6</t>
+  </si>
+  <si>
+    <t>https://www.techonthenet.com/sql/where.php</t>
+  </si>
+  <si>
+    <t>W7</t>
+  </si>
+  <si>
+    <t>https://www.dofactory.com/sql/where</t>
+  </si>
+  <si>
     <t>J1</t>
   </si>
   <si>
-    <t>JOIN</t>
+    <t>JOINS</t>
   </si>
   <si>
     <t>https://www.guru99.com/joins-sql-left-right.html</t>
@@ -106,33 +130,6 @@
     <t>https://www.geeksforgeeks.org/sql-join-set-1-inner-left-right-and-full-joins/</t>
   </si>
   <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>FROM</t>
-  </si>
-  <si>
-    <t>https://www.sitepoint.com/simply-sql-the-from-clause/</t>
-  </si>
-  <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>https://www.techonthenet.com/sql/from.php</t>
-  </si>
-  <si>
-    <t>F3</t>
-  </si>
-  <si>
-    <t>https://www.w3schools.com/sql/sql_ref_from.asp</t>
-  </si>
-  <si>
-    <t>F4</t>
-  </si>
-  <si>
-    <t>https://oracle-base.com/articles/misc/sql-for-beginners-the-from-clause</t>
-  </si>
-  <si>
     <t>U1</t>
   </si>
   <si>
@@ -395,6 +392,156 @@
   </si>
   <si>
     <t>https://www.javatpoint.com/mysql-group-by</t>
+  </si>
+  <si>
+    <t>SU1</t>
+  </si>
+  <si>
+    <t>SUBQUERY</t>
+  </si>
+  <si>
+    <t>https://www.tutorialspoint.com/sql/sql-sub-queries.htm</t>
+  </si>
+  <si>
+    <t>SU2</t>
+  </si>
+  <si>
+    <t>https://www.sqlservertutorial.net/sql-server-basics/sql-server-subquery/</t>
+  </si>
+  <si>
+    <t>SU3</t>
+  </si>
+  <si>
+    <t>https://learnsql.com/blog/sql-subqueries/</t>
+  </si>
+  <si>
+    <t>SU4</t>
+  </si>
+  <si>
+    <t>https://dev.mysql.com/doc/refman/8.0/en/subqueries.html</t>
+  </si>
+  <si>
+    <t>SU5</t>
+  </si>
+  <si>
+    <t>https://www.techonthenet.com/sql_server/subqueries.php</t>
+  </si>
+  <si>
+    <t>SU6</t>
+  </si>
+  <si>
+    <t>https://www.sqltutorial.org/sql-subquery/</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>HAVING</t>
+  </si>
+  <si>
+    <t>https://www.sqlservertutorial.net/sql-server-basics/sql-server-having/</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Having_(SQL)</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>https://www.techonthenet.com/sql/having.php</t>
+  </si>
+  <si>
+    <t>H4</t>
+  </si>
+  <si>
+    <t>https://www.bitdegree.org/learn/sql-having</t>
+  </si>
+  <si>
+    <t>H5</t>
+  </si>
+  <si>
+    <t>https://www.mysqltutorial.org/mysql-having.aspx/</t>
+  </si>
+  <si>
+    <t>H6</t>
+  </si>
+  <si>
+    <t>https://learnsql.com/blog/sql-having-explained/</t>
+  </si>
+  <si>
+    <t>O1</t>
+  </si>
+  <si>
+    <t>ORDER BY</t>
+  </si>
+  <si>
+    <t>https://mode.com/sql-tutorial/sql-order-by/</t>
+  </si>
+  <si>
+    <t>O2</t>
+  </si>
+  <si>
+    <t>https://www.techonthenet.com/sql_server/order_by.php</t>
+  </si>
+  <si>
+    <t>O3</t>
+  </si>
+  <si>
+    <t>https://www.guru99.com/order-by-desc-and-asc.html</t>
+  </si>
+  <si>
+    <t>O4</t>
+  </si>
+  <si>
+    <t>https://www.dofactory.com/sql/order-by</t>
+  </si>
+  <si>
+    <t>O5</t>
+  </si>
+  <si>
+    <t>https://www.1keydata.com/sql/sqlorderby.html</t>
+  </si>
+  <si>
+    <t>O6</t>
+  </si>
+  <si>
+    <t>http://www-db.deis.unibo.it/courses/TW/DOCS/w3schools/sql/sql_orderby.asp.html</t>
+  </si>
+  <si>
+    <t>DI1</t>
+  </si>
+  <si>
+    <t>DISTINCT</t>
+  </si>
+  <si>
+    <t>https://www.sqlservertutorial.net/sql-server-basics/sql-server-select-distinct/</t>
+  </si>
+  <si>
+    <t>DI2</t>
+  </si>
+  <si>
+    <t>https://www.javatpoint.com/sql-select-distinct</t>
+  </si>
+  <si>
+    <t>DI3</t>
+  </si>
+  <si>
+    <t>https://www.techonthenet.com/sql/distinct.php</t>
+  </si>
+  <si>
+    <t>DI4</t>
+  </si>
+  <si>
+    <t>https://www.oracletutorial.com/oracle-basics/oracle-select-distinct/</t>
+  </si>
+  <si>
+    <t>DI5</t>
+  </si>
+  <si>
+    <t>https://www.dofactory.com/sql/select-distinct</t>
   </si>
 </sst>
 </file>
@@ -407,15 +554,16 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
+    <font/>
     <font>
       <u/>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
     </font>
     <font>
       <u/>
@@ -428,13 +576,8 @@
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
-      <u/>
-      <sz val="11.0"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
     </font>
-    <font/>
   </fonts>
   <fills count="3">
     <fill>
@@ -456,7 +599,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -466,13 +609,16 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -713,7 +859,7 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -724,7 +870,7 @@
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -738,7 +884,7 @@
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -746,30 +892,30 @@
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>15</v>
@@ -780,7 +926,7 @@
         <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>17</v>
@@ -791,7 +937,7 @@
         <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>19</v>
@@ -802,51 +948,51 @@
         <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>30</v>
@@ -856,484 +1002,737 @@
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="C19" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="C39" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C44" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="C49" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C52" s="5" t="s">
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="6" t="s">
+      <c r="B53" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="C54" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C58" s="2" t="s">
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="s">
         <v>127</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -1349,54 +1748,52 @@
     <hyperlink r:id="rId9" ref="C9"/>
     <hyperlink r:id="rId10" ref="C10"/>
     <hyperlink r:id="rId11" ref="C11"/>
-    <hyperlink r:id="rId12" ref="C12"/>
-    <hyperlink r:id="rId13" ref="C13"/>
-    <hyperlink r:id="rId14" ref="C14"/>
-    <hyperlink r:id="rId15" ref="C15"/>
-    <hyperlink r:id="rId16" ref="C16"/>
-    <hyperlink r:id="rId17" ref="C17"/>
-    <hyperlink r:id="rId18" ref="C18"/>
-    <hyperlink r:id="rId19" ref="C19"/>
-    <hyperlink r:id="rId20" ref="C20"/>
-    <hyperlink r:id="rId21" ref="C21"/>
-    <hyperlink r:id="rId22" ref="C22"/>
-    <hyperlink r:id="rId23" ref="C23"/>
-    <hyperlink r:id="rId24" ref="C24"/>
-    <hyperlink r:id="rId25" ref="C25"/>
-    <hyperlink r:id="rId26" ref="C26"/>
-    <hyperlink r:id="rId27" ref="C27"/>
-    <hyperlink r:id="rId28" ref="C28"/>
-    <hyperlink r:id="rId29" ref="C29"/>
-    <hyperlink r:id="rId30" ref="C30"/>
-    <hyperlink r:id="rId31" ref="C31"/>
-    <hyperlink r:id="rId32" ref="C32"/>
-    <hyperlink r:id="rId33" ref="C33"/>
-    <hyperlink r:id="rId34" ref="C34"/>
-    <hyperlink r:id="rId35" ref="C35"/>
-    <hyperlink r:id="rId36" ref="C36"/>
-    <hyperlink r:id="rId37" ref="C37"/>
-    <hyperlink r:id="rId38" ref="C38"/>
-    <hyperlink r:id="rId39" ref="C39"/>
-    <hyperlink r:id="rId40" ref="C40"/>
-    <hyperlink r:id="rId41" ref="C41"/>
-    <hyperlink r:id="rId42" ref="C42"/>
-    <hyperlink r:id="rId43" ref="C43"/>
-    <hyperlink r:id="rId44" ref="C44"/>
-    <hyperlink r:id="rId45" ref="C45"/>
-    <hyperlink r:id="rId46" ref="C46"/>
-    <hyperlink r:id="rId47" ref="C47"/>
-    <hyperlink r:id="rId48" ref="C48"/>
-    <hyperlink r:id="rId49" ref="C49"/>
-    <hyperlink r:id="rId50" ref="C50"/>
-    <hyperlink r:id="rId51" ref="C51"/>
-    <hyperlink r:id="rId52" ref="C52"/>
-    <hyperlink r:id="rId53" ref="C53"/>
-    <hyperlink r:id="rId54" ref="C54"/>
-    <hyperlink r:id="rId55" ref="C55"/>
-    <hyperlink r:id="rId56" ref="C56"/>
-    <hyperlink r:id="rId57" ref="C57"/>
-    <hyperlink r:id="rId58" ref="C58"/>
+    <hyperlink r:id="rId12" ref="C14"/>
+    <hyperlink r:id="rId13" ref="C15"/>
+    <hyperlink r:id="rId14" ref="C16"/>
+    <hyperlink r:id="rId15" ref="C17"/>
+    <hyperlink r:id="rId16" ref="C18"/>
+    <hyperlink r:id="rId17" ref="C19"/>
+    <hyperlink r:id="rId18" ref="C20"/>
+    <hyperlink r:id="rId19" ref="C21"/>
+    <hyperlink r:id="rId20" ref="C22"/>
+    <hyperlink r:id="rId21" ref="C23"/>
+    <hyperlink r:id="rId22" ref="C24"/>
+    <hyperlink r:id="rId23" ref="C25"/>
+    <hyperlink r:id="rId24" ref="C26"/>
+    <hyperlink r:id="rId25" ref="C27"/>
+    <hyperlink r:id="rId26" ref="C28"/>
+    <hyperlink r:id="rId27" ref="C29"/>
+    <hyperlink r:id="rId28" ref="C30"/>
+    <hyperlink r:id="rId29" ref="C31"/>
+    <hyperlink r:id="rId30" ref="C32"/>
+    <hyperlink r:id="rId31" ref="C33"/>
+    <hyperlink r:id="rId32" ref="C34"/>
+    <hyperlink r:id="rId33" ref="C35"/>
+    <hyperlink r:id="rId34" ref="C36"/>
+    <hyperlink r:id="rId35" ref="C37"/>
+    <hyperlink r:id="rId36" ref="C38"/>
+    <hyperlink r:id="rId37" ref="C39"/>
+    <hyperlink r:id="rId38" ref="C40"/>
+    <hyperlink r:id="rId39" ref="C41"/>
+    <hyperlink r:id="rId40" ref="C42"/>
+    <hyperlink r:id="rId41" ref="C43"/>
+    <hyperlink r:id="rId42" ref="C44"/>
+    <hyperlink r:id="rId43" ref="C45"/>
+    <hyperlink r:id="rId44" ref="C46"/>
+    <hyperlink r:id="rId45" ref="C47"/>
+    <hyperlink r:id="rId46" ref="C48"/>
+    <hyperlink r:id="rId47" ref="C49"/>
+    <hyperlink r:id="rId48" ref="C50"/>
+    <hyperlink r:id="rId49" ref="C51"/>
+    <hyperlink r:id="rId50" ref="C52"/>
+    <hyperlink r:id="rId51" ref="C53"/>
+    <hyperlink r:id="rId52" ref="C54"/>
+    <hyperlink r:id="rId53" ref="C55"/>
+    <hyperlink r:id="rId54" ref="C56"/>
+    <hyperlink r:id="rId55" ref="C57"/>
+    <hyperlink r:id="rId56" ref="C58"/>
   </hyperlinks>
-  <drawing r:id="rId59"/>
+  <drawing r:id="rId57"/>
 </worksheet>
 </file>